--- a/smeta.xlsx
+++ b/smeta.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\!Sharonov\Repo\SolidWorks\Vesna107\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sharonov\Work\Repo\SolidWorks\Vesna107\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C092EA-52E4-43DF-88C8-27EC4503495A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1395E842-61F5-463B-BA05-85E66C686730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,19 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
   <si>
     <t>сайдинг</t>
   </si>
@@ -43,22 +36,58 @@
     <t>брус</t>
   </si>
   <si>
-    <t>брус 1/3</t>
-  </si>
-  <si>
     <t>Наим.</t>
   </si>
   <si>
     <t>Цена</t>
   </si>
   <si>
-    <t>Кол-во</t>
-  </si>
-  <si>
     <t>Стоимость</t>
   </si>
   <si>
     <t>Итого:</t>
+  </si>
+  <si>
+    <t>Кол-во, мин</t>
+  </si>
+  <si>
+    <t>отлив</t>
+  </si>
+  <si>
+    <t>околооконный</t>
+  </si>
+  <si>
+    <t>начальный</t>
+  </si>
+  <si>
+    <t>финишный</t>
+  </si>
+  <si>
+    <t>H-профиль</t>
+  </si>
+  <si>
+    <t>Купить</t>
+  </si>
+  <si>
+    <t>фанера 10x1525x1525</t>
+  </si>
+  <si>
+    <t>биозащита</t>
+  </si>
+  <si>
+    <t>скрепки короткие</t>
+  </si>
+  <si>
+    <t>Шурупы для сайдинга оц кругл 30+</t>
+  </si>
+  <si>
+    <t>Шурупы для бруса оц потай 80+</t>
+  </si>
+  <si>
+    <t>дост1</t>
+  </si>
+  <si>
+    <t>дост2</t>
   </si>
 </sst>
 </file>
@@ -91,7 +120,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -99,16 +128,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -386,105 +431,308 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="12.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>370</v>
       </c>
-      <c r="C2">
-        <v>30</v>
-      </c>
-      <c r="D2">
-        <f>B2*C2</f>
-        <v>11100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C2" s="2">
+        <v>27</v>
+      </c>
+      <c r="D2" s="2">
+        <v>38</v>
+      </c>
+      <c r="E2" s="2">
+        <f>B2*D2</f>
+        <v>14060</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <f>370/2</f>
         <v>185</v>
       </c>
-      <c r="C3">
-        <v>35</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D5" si="0">B3*C3</f>
-        <v>6475</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>140</v>
-      </c>
-      <c r="C4">
-        <v>24</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>3360</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <f>140/3</f>
-        <v>46.666666666666664</v>
-      </c>
-      <c r="C5">
+      <c r="C3" s="2">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2">
+        <f t="shared" ref="E3:E14" si="0">B3*D3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>190</v>
+      </c>
+      <c r="C4" s="2">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" si="0"/>
+        <v>4750</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2">
+        <v>800</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" si="0"/>
+        <v>1600</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1160</v>
+      </c>
+      <c r="C6" s="2">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="0"/>
+        <v>9280</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2">
+        <v>370</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>740</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2">
+        <v>340</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="0"/>
+        <v>680</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2">
+        <v>530</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="0"/>
+        <v>1060</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="2">
+        <v>900</v>
+      </c>
+      <c r="C10" s="2">
+        <v>4</v>
+      </c>
+      <c r="D10" s="2">
+        <v>4</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="0"/>
+        <v>3600</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2">
+        <v>6000</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>6700</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2">
+        <v>500</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>793.33333333333326</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="1">
-        <f>SUM(D2:D9)</f>
-        <v>21728.333333333332</v>
+      <c r="B13" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="1">
+        <f>SUM(E2:E17)</f>
+        <v>46970</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/smeta.xlsx
+++ b/smeta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sharonov\Work\Repo\SolidWorks\Vesna107\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1395E842-61F5-463B-BA05-85E66C686730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D90E8B-0736-47CD-9A5C-330F641790F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -434,7 +434,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,14 +472,14 @@
         <v>370</v>
       </c>
       <c r="C2" s="2">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E2" s="2">
         <f>B2*D2</f>
-        <v>14060</v>
+        <v>12210</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>20</v>
@@ -494,7 +494,7 @@
         <v>185</v>
       </c>
       <c r="C3" s="2">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2">
         <f t="shared" ref="E3:E14" si="0">B3*D3</f>
@@ -728,7 +728,7 @@
       </c>
       <c r="E18" s="1">
         <f>SUM(E2:E17)</f>
-        <v>46970</v>
+        <v>45120</v>
       </c>
     </row>
   </sheetData>

--- a/smeta.xlsx
+++ b/smeta.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sharonov\Work\Repo\SolidWorks\Vesna107\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D90E8B-0736-47CD-9A5C-330F641790F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5B2294-DB53-4A93-A8DC-4E9A3FE4A0F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,9 +30,6 @@
     <t>сайдинг</t>
   </si>
   <si>
-    <t>сайдинг 1/2</t>
-  </si>
-  <si>
     <t>брус</t>
   </si>
   <si>
@@ -88,6 +85,9 @@
   </si>
   <si>
     <t>дост2</t>
+  </si>
+  <si>
+    <t>v06.07.2023</t>
   </si>
 </sst>
 </file>
@@ -431,7 +431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
@@ -449,19 +449,19 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -472,17 +472,17 @@
         <v>370</v>
       </c>
       <c r="C2" s="2">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="D2" s="2">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="E2" s="2">
         <f>B2*D2</f>
-        <v>12210</v>
+        <v>17020</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -490,36 +490,41 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <f>370/2</f>
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C3" s="2">
-        <v>10</v>
+        <v>24</v>
+      </c>
+      <c r="D3" s="2">
+        <v>25</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E14" si="0">B3*D3</f>
-        <v>0</v>
+        <f t="shared" ref="E3:E13" si="0">B3*D3</f>
+        <v>4750</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2">
-        <v>190</v>
+        <v>800</v>
       </c>
       <c r="C4" s="2">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D4" s="2">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" si="0"/>
-        <v>4750</v>
+        <v>1600</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -527,20 +532,20 @@
         <v>8</v>
       </c>
       <c r="B5" s="2">
-        <v>800</v>
+        <v>1160</v>
       </c>
       <c r="C5" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D5" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="0"/>
-        <v>1600</v>
+        <v>9280</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -548,20 +553,20 @@
         <v>9</v>
       </c>
       <c r="B6" s="2">
-        <v>1160</v>
+        <v>370</v>
       </c>
       <c r="C6" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D6" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" si="0"/>
-        <v>9280</v>
+        <v>740</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -569,7 +574,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="2">
-        <v>370</v>
+        <v>340</v>
       </c>
       <c r="C7" s="2">
         <v>2</v>
@@ -579,10 +584,10 @@
       </c>
       <c r="E7" s="2">
         <f t="shared" si="0"/>
-        <v>740</v>
+        <v>680</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -590,7 +595,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="2">
-        <v>340</v>
+        <v>530</v>
       </c>
       <c r="C8" s="2">
         <v>2</v>
@@ -600,31 +605,31 @@
       </c>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
-        <v>680</v>
+        <v>1060</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2">
-        <v>530</v>
+        <v>900</v>
       </c>
       <c r="C9" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D9" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="0"/>
-        <v>1060</v>
+        <v>5400</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -632,20 +637,19 @@
         <v>14</v>
       </c>
       <c r="B10" s="2">
-        <v>900</v>
+        <v>6000</v>
       </c>
       <c r="C10" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D10" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" si="0"/>
-        <v>3600</v>
+        <v>6700</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -653,19 +657,17 @@
         <v>15</v>
       </c>
       <c r="B11" s="2">
-        <v>6000</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
       </c>
       <c r="E11" s="2">
-        <v>6700</v>
+        <f t="shared" si="0"/>
+        <v>500</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -673,17 +675,17 @@
         <v>16</v>
       </c>
       <c r="B12" s="2">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="D12" s="2">
         <v>1</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -701,34 +703,21 @@
         <v>2000</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="2">
-        <v>2000</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2">
-        <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="1">
-        <f>SUM(E2:E17)</f>
-        <v>45120</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="1">
+        <f>SUM(E2:E16)</f>
+        <v>51730</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
